--- a/ExecutionReport/PurchaseOrder_Report.xlsx
+++ b/ExecutionReport/PurchaseOrder_Report.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -436,10 +436,10 @@
         <v/>
       </c>
       <c r="E2" t="str">
-        <v>13-05-2025 03:05:47 pm</v>
+        <v>14-05-2025 12:15:52 pm</v>
       </c>
       <c r="F2" t="str">
-        <v>136ms</v>
+        <v>156ms</v>
       </c>
     </row>
     <row r="3">
@@ -456,10 +456,10 @@
         <v/>
       </c>
       <c r="E3" t="str">
-        <v>13-05-2025 03:05:48 pm</v>
+        <v>14-05-2025 12:15:52 pm</v>
       </c>
       <c r="F3" t="str">
-        <v>207ms</v>
+        <v>252ms</v>
       </c>
     </row>
     <row r="4">
@@ -476,10 +476,10 @@
         <v>Username: rohan+green@alchemytech.ca</v>
       </c>
       <c r="E4" t="str">
-        <v>13-05-2025 03:05:51 pm</v>
+        <v>14-05-2025 12:16:09 pm</v>
       </c>
       <c r="F4" t="str">
-        <v>3s 453ms</v>
+        <v>16s 179ms</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         <v>Password: ********</v>
       </c>
       <c r="E5" t="str">
-        <v>13-05-2025 03:05:51 pm</v>
+        <v>14-05-2025 12:16:09 pm</v>
       </c>
       <c r="F5" t="str">
-        <v>312ms</v>
+        <v>250ms</v>
       </c>
     </row>
     <row r="6">
@@ -516,10 +516,10 @@
         <v/>
       </c>
       <c r="E6" t="str">
-        <v>13-05-2025 03:05:52 pm</v>
+        <v>14-05-2025 12:16:09 pm</v>
       </c>
       <c r="F6" t="str">
-        <v>413ms</v>
+        <v>242ms</v>
       </c>
     </row>
     <row r="7">
@@ -536,10 +536,10 @@
         <v/>
       </c>
       <c r="E7" t="str">
-        <v>13-05-2025 03:05:53 pm</v>
+        <v>14-05-2025 12:16:10 pm</v>
       </c>
       <c r="F7" t="str">
-        <v>831ms</v>
+        <v>873ms</v>
       </c>
     </row>
     <row r="8">
@@ -556,10 +556,10 @@
         <v/>
       </c>
       <c r="E8" t="str">
-        <v>13-05-2025 03:05:53 pm</v>
+        <v>14-05-2025 12:16:10 pm</v>
       </c>
       <c r="F8" t="str">
-        <v>132ms</v>
+        <v>141ms</v>
       </c>
     </row>
     <row r="9">
@@ -576,10 +576,10 @@
         <v/>
       </c>
       <c r="E9" t="str">
-        <v>13-05-2025 03:05:59 pm</v>
+        <v>14-05-2025 12:16:16 pm</v>
       </c>
       <c r="F9" t="str">
-        <v>6s 545ms</v>
+        <v>5s 895ms</v>
       </c>
     </row>
     <row r="10">
@@ -596,18 +596,18 @@
         <v/>
       </c>
       <c r="E10" t="str">
-        <v>13-05-2025 03:06:02 pm</v>
+        <v>14-05-2025 12:16:18 pm</v>
       </c>
       <c r="F10" t="str">
-        <v>2s 424ms</v>
+        <v>2s 321ms</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11">
-        <v>9</v>
+      <c r="A11" t="str">
+        <v>SIDEBAR-HOVER</v>
       </c>
       <c r="B11" t="str">
-        <v>Attempting to hover over sidebar (Attempt 1)</v>
+        <v>Hovered over sidebar</v>
       </c>
       <c r="C11" t="str">
         <v>Passed</v>
@@ -616,10 +616,10 @@
         <v/>
       </c>
       <c r="E11" t="str">
-        <v>13-05-2025 03:06:02 pm</v>
+        <v>14-05-2025 12:16:21 pm</v>
       </c>
       <c r="F11" t="str">
-        <v>631ms</v>
+        <v>2s 344ms</v>
       </c>
     </row>
     <row r="12">
@@ -636,10 +636,10 @@
         <v/>
       </c>
       <c r="E12" t="str">
-        <v>13-05-2025 03:06:03 pm</v>
+        <v>14-05-2025 12:16:21 pm</v>
       </c>
       <c r="F12" t="str">
-        <v>965ms</v>
+        <v>146ms</v>
       </c>
     </row>
     <row r="13">
@@ -656,10 +656,10 @@
         <v/>
       </c>
       <c r="E13" t="str">
-        <v>13-05-2025 03:06:04 pm</v>
+        <v>14-05-2025 12:16:22 pm</v>
       </c>
       <c r="F13" t="str">
-        <v>1s 26ms</v>
+        <v>699ms</v>
       </c>
     </row>
     <row r="14">
@@ -676,10 +676,10 @@
         <v/>
       </c>
       <c r="E14" t="str">
-        <v>13-05-2025 03:06:04 pm</v>
+        <v>14-05-2025 12:16:22 pm</v>
       </c>
       <c r="F14" t="str">
-        <v>140ms</v>
+        <v>174ms</v>
       </c>
     </row>
     <row r="15">
@@ -696,10 +696,10 @@
         <v/>
       </c>
       <c r="E15" t="str">
-        <v>13-05-2025 03:06:06 pm</v>
+        <v>14-05-2025 12:16:23 pm</v>
       </c>
       <c r="F15" t="str">
-        <v>1s 689ms</v>
+        <v>1s 32ms</v>
       </c>
     </row>
     <row r="16">
@@ -716,10 +716,10 @@
         <v/>
       </c>
       <c r="E16" t="str">
-        <v>13-05-2025 03:06:10 pm</v>
+        <v>14-05-2025 12:16:28 pm</v>
       </c>
       <c r="F16" t="str">
-        <v>3s 946ms</v>
+        <v>4s 914ms</v>
       </c>
     </row>
     <row r="17">
@@ -736,7 +736,7 @@
         <v>Currency: INR</v>
       </c>
       <c r="E17" t="str">
-        <v>13-05-2025 03:06:10 pm</v>
+        <v>14-05-2025 12:16:28 pm</v>
       </c>
       <c r="F17" t="str">
         <v>141ms</v>
@@ -756,10 +756,10 @@
         <v/>
       </c>
       <c r="E18" t="str">
-        <v>13-05-2025 03:06:10 pm</v>
+        <v>14-05-2025 12:16:28 pm</v>
       </c>
       <c r="F18" t="str">
-        <v>143ms</v>
+        <v>127ms</v>
       </c>
     </row>
     <row r="19">
@@ -776,10 +776,10 @@
         <v>Assignee: Green</v>
       </c>
       <c r="E19" t="str">
-        <v>13-05-2025 03:06:14 pm</v>
+        <v>14-05-2025 12:16:32 pm</v>
       </c>
       <c r="F19" t="str">
-        <v>3s 674ms</v>
+        <v>3s 617ms</v>
       </c>
     </row>
     <row r="20">
@@ -796,10 +796,10 @@
         <v/>
       </c>
       <c r="E20" t="str">
-        <v>13-05-2025 03:06:16 pm</v>
+        <v>14-05-2025 12:16:34 pm</v>
       </c>
       <c r="F20" t="str">
-        <v>2s 126ms</v>
+        <v>2s 132ms</v>
       </c>
     </row>
     <row r="21">
@@ -813,13 +813,13 @@
         <v>Passed</v>
       </c>
       <c r="D21" t="str">
-        <v>Selected Supplier: Titan Tubes &amp; Pipes Ltd.(TTPL)</v>
+        <v>Selected Supplier: Venus Pipes and Tubes(VPT)</v>
       </c>
       <c r="E21" t="str">
-        <v>13-05-2025 03:06:18 pm</v>
+        <v>14-05-2025 12:16:35 pm</v>
       </c>
       <c r="F21" t="str">
-        <v>1s 780ms</v>
+        <v>1s 720ms</v>
       </c>
     </row>
     <row r="22">
@@ -836,10 +836,10 @@
         <v/>
       </c>
       <c r="E22" t="str">
-        <v>13-05-2025 03:06:20 pm</v>
+        <v>14-05-2025 12:16:38 pm</v>
       </c>
       <c r="F22" t="str">
-        <v>2s 126ms</v>
+        <v>2s 128ms</v>
       </c>
     </row>
     <row r="23">
@@ -853,13 +853,13 @@
         <v>Passed</v>
       </c>
       <c r="D23" t="str">
-        <v>Selected Address: Suite 102 GIDC</v>
+        <v>Selected Address: Survey No.233/2</v>
       </c>
       <c r="E23" t="str">
-        <v>13-05-2025 03:06:21 pm</v>
+        <v>14-05-2025 12:16:38 pm</v>
       </c>
       <c r="F23" t="str">
-        <v>938ms</v>
+        <v>780ms</v>
       </c>
     </row>
     <row r="24">
@@ -873,13 +873,13 @@
         <v>Passed</v>
       </c>
       <c r="D24" t="str">
-        <v>Enquiry Reference Number: ENQ747</v>
+        <v>Enquiry Reference Number: ENQ4495</v>
       </c>
       <c r="E24" t="str">
-        <v>13-05-2025 03:06:23 pm</v>
+        <v>14-05-2025 12:16:40 pm</v>
       </c>
       <c r="F24" t="str">
-        <v>2s 118ms</v>
+        <v>2s 137ms</v>
       </c>
     </row>
     <row r="25">
@@ -896,10 +896,10 @@
         <v/>
       </c>
       <c r="E25" t="str">
-        <v>13-05-2025 03:06:26 pm</v>
+        <v>14-05-2025 12:16:43 pm</v>
       </c>
       <c r="F25" t="str">
-        <v>2s 637ms</v>
+        <v>2s 631ms</v>
       </c>
     </row>
     <row r="26">
@@ -913,13 +913,13 @@
         <v>Passed</v>
       </c>
       <c r="D26" t="str">
-        <v>Selected Date: 8-5-2025</v>
+        <v>Selected Date: 9-5-2025</v>
       </c>
       <c r="E26" t="str">
-        <v>13-05-2025 03:06:29 pm</v>
+        <v>14-05-2025 12:16:46 pm</v>
       </c>
       <c r="F26" t="str">
-        <v>3s 400ms</v>
+        <v>3s 155ms</v>
       </c>
     </row>
     <row r="27">
@@ -936,10 +936,10 @@
         <v/>
       </c>
       <c r="E27" t="str">
-        <v>13-05-2025 03:06:31 pm</v>
+        <v>14-05-2025 12:16:48 pm</v>
       </c>
       <c r="F27" t="str">
-        <v>2s 121ms</v>
+        <v>2s 128ms</v>
       </c>
     </row>
     <row r="28">
@@ -953,18 +953,774 @@
         <v>Passed</v>
       </c>
       <c r="D28" t="str">
-        <v>Selected Buyer Address: Gat No. 356, Kondapuri, Shirur Taluka, Pune Nagar High Way,</v>
+        <v>Selected Buyer Address: Plot No. 63, Survey No. 369-2, Maruthi Nagar Hosur Industrial Complex</v>
       </c>
       <c r="E28" t="str">
-        <v>13-05-2025 03:06:32 pm</v>
+        <v>14-05-2025 12:16:49 pm</v>
       </c>
       <c r="F28" t="str">
-        <v>877ms</v>
+        <v>870ms</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Handling CHA Charges and Duty Charges</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Passed</v>
+      </c>
+      <c r="D29" t="str">
+        <v/>
+      </c>
+      <c r="E29" t="str">
+        <v>14-05-2025 12:16:51 pm</v>
+      </c>
+      <c r="F29" t="str">
+        <v>2s 132ms</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>WARNING</v>
+      </c>
+      <c r="B30" t="str">
+        <v>CHA and Duty Charges fields not found - proceeding with radio selection flow</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Passed</v>
+      </c>
+      <c r="D30" t="str">
+        <v/>
+      </c>
+      <c r="E30" t="str">
+        <v>14-05-2025 12:16:56 pm</v>
+      </c>
+      <c r="F30" t="str">
+        <v>5s 124ms</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Handling TPI radio button selection</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Passed</v>
+      </c>
+      <c r="D31" t="str">
+        <v/>
+      </c>
+      <c r="E31" t="str">
+        <v>14-05-2025 12:16:58 pm</v>
+      </c>
+      <c r="F31" t="str">
+        <v>1s 158ms</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>28</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Selected Item Wise option for TPI - skipping to next step</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Passed</v>
+      </c>
+      <c r="D32" t="str">
+        <v/>
+      </c>
+      <c r="E32" t="str">
+        <v>14-05-2025 12:16:59 pm</v>
+      </c>
+      <c r="F32" t="str">
+        <v>1s 734ms</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Handling Testing radio button selection</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Passed</v>
+      </c>
+      <c r="D33" t="str">
+        <v/>
+      </c>
+      <c r="E33" t="str">
+        <v>14-05-2025 12:17:01 pm</v>
+      </c>
+      <c r="F33" t="str">
+        <v>1s 134ms</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>DEBUG</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Available option for Testing: %</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Passed</v>
+      </c>
+      <c r="D34" t="str">
+        <v/>
+      </c>
+      <c r="E34" t="str">
+        <v>14-05-2025 12:17:04 pm</v>
+      </c>
+      <c r="F34" t="str">
+        <v>3s 860ms</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>DEBUG</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Available option for Testing: Per Kg</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Passed</v>
+      </c>
+      <c r="D35" t="str">
+        <v/>
+      </c>
+      <c r="E35" t="str">
+        <v>14-05-2025 12:17:05 pm</v>
+      </c>
+      <c r="F35" t="str">
+        <v>129ms</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>DEBUG</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Available option for Testing: Per Mtr</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Passed</v>
+      </c>
+      <c r="D36" t="str">
+        <v/>
+      </c>
+      <c r="E36" t="str">
+        <v>14-05-2025 12:17:05 pm</v>
+      </c>
+      <c r="F36" t="str">
+        <v>127ms</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>DEBUG</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Available option for Testing: Per MT</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Passed</v>
+      </c>
+      <c r="D37" t="str">
+        <v/>
+      </c>
+      <c r="E37" t="str">
+        <v>14-05-2025 12:17:05 pm</v>
+      </c>
+      <c r="F37" t="str">
+        <v>139ms</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>DEBUG</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Available option for Testing: Extra At Actual</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Passed</v>
+      </c>
+      <c r="D38" t="str">
+        <v/>
+      </c>
+      <c r="E38" t="str">
+        <v>14-05-2025 12:17:05 pm</v>
+      </c>
+      <c r="F38" t="str">
+        <v>146ms</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>DEBUG</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Available option for Testing: Included</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Passed</v>
+      </c>
+      <c r="D39" t="str">
+        <v/>
+      </c>
+      <c r="E39" t="str">
+        <v>14-05-2025 12:17:05 pm</v>
+      </c>
+      <c r="F39" t="str">
+        <v>147ms</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>DEBUG</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Available option for Testing: Lumpsum</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Passed</v>
+      </c>
+      <c r="D40" t="str">
+        <v/>
+      </c>
+      <c r="E40" t="str">
+        <v>14-05-2025 12:17:05 pm</v>
+      </c>
+      <c r="F40" t="str">
+        <v>148ms</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>DEBUG</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Available option for Testing: To Pay</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Passed</v>
+      </c>
+      <c r="D41" t="str">
+        <v/>
+      </c>
+      <c r="E41" t="str">
+        <v>14-05-2025 12:17:05 pm</v>
+      </c>
+      <c r="F41" t="str">
+        <v>145ms</v>
+      </c>
+    </row>
+    <row r="42" xml:space="preserve">
+      <c r="A42" t="str">
+        <v>WARNING</v>
+      </c>
+      <c r="B42" t="str" xml:space="preserve">
+        <v xml:space="preserve">Error handling rate input for Testing: elementHandle.waitForElementState: Timeout 5000ms exceeded.
+Call log:
+_x001b_[2m  - attempting wait for enabled action_x001b_[22m
+_x001b_[2m    2 × element is not enabled_x001b_[22m
+_x001b_[2m    - retrying wait for enabled action_x001b_[22m
+_x001b_[2m    - waiting 20ms_x001b_[22m
+_x001b_[2m    2 × element is not enabled_x001b_[22m
+_x001b_[2m    - retrying wait for enabled action_x001b_[22m
+_x001b_[2m      - waiting 100ms_x001b_[22m
+_x001b_[2m    10 × element is not enabled_x001b_[22m
+_x001b_[2m     - retrying wait for enabled action_x001b_[22m
+_x001b_[2m       - waiting 500ms_x001b_[22m
+</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Passed</v>
+      </c>
+      <c r="D42" t="str">
+        <v/>
+      </c>
+      <c r="E42" t="str">
+        <v>14-05-2025 12:17:17 pm</v>
+      </c>
+      <c r="F42" t="str">
+        <v>11s 641ms</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>31</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Handling Packing radio button selection</v>
+      </c>
+      <c r="C43" t="str">
+        <v>Passed</v>
+      </c>
+      <c r="D43" t="str">
+        <v/>
+      </c>
+      <c r="E43" t="str">
+        <v>14-05-2025 12:17:20 pm</v>
+      </c>
+      <c r="F43" t="str">
+        <v>3s 146ms</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>DEBUG</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Available option for Packing: %</v>
+      </c>
+      <c r="C44" t="str">
+        <v>Passed</v>
+      </c>
+      <c r="D44" t="str">
+        <v/>
+      </c>
+      <c r="E44" t="str">
+        <v>14-05-2025 12:17:24 pm</v>
+      </c>
+      <c r="F44" t="str">
+        <v>3s 920ms</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>DEBUG</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Available option for Packing: Per Kg</v>
+      </c>
+      <c r="C45" t="str">
+        <v>Passed</v>
+      </c>
+      <c r="D45" t="str">
+        <v/>
+      </c>
+      <c r="E45" t="str">
+        <v>14-05-2025 12:17:24 pm</v>
+      </c>
+      <c r="F45" t="str">
+        <v>152ms</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>DEBUG</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Available option for Packing: Per Mtr</v>
+      </c>
+      <c r="C46" t="str">
+        <v>Passed</v>
+      </c>
+      <c r="D46" t="str">
+        <v/>
+      </c>
+      <c r="E46" t="str">
+        <v>14-05-2025 12:17:24 pm</v>
+      </c>
+      <c r="F46" t="str">
+        <v>153ms</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>DEBUG</v>
+      </c>
+      <c r="B47" t="str">
+        <v>Available option for Packing: Per MT</v>
+      </c>
+      <c r="C47" t="str">
+        <v>Passed</v>
+      </c>
+      <c r="D47" t="str">
+        <v/>
+      </c>
+      <c r="E47" t="str">
+        <v>14-05-2025 12:17:25 pm</v>
+      </c>
+      <c r="F47" t="str">
+        <v>153ms</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>DEBUG</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Available option for Packing: Extra At Actual</v>
+      </c>
+      <c r="C48" t="str">
+        <v>Passed</v>
+      </c>
+      <c r="D48" t="str">
+        <v/>
+      </c>
+      <c r="E48" t="str">
+        <v>14-05-2025 12:17:25 pm</v>
+      </c>
+      <c r="F48" t="str">
+        <v>144ms</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>DEBUG</v>
+      </c>
+      <c r="B49" t="str">
+        <v>Available option for Packing: Included</v>
+      </c>
+      <c r="C49" t="str">
+        <v>Passed</v>
+      </c>
+      <c r="D49" t="str">
+        <v/>
+      </c>
+      <c r="E49" t="str">
+        <v>14-05-2025 12:17:25 pm</v>
+      </c>
+      <c r="F49" t="str">
+        <v>137ms</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>DEBUG</v>
+      </c>
+      <c r="B50" t="str">
+        <v>Available option for Packing: Lumpsum</v>
+      </c>
+      <c r="C50" t="str">
+        <v>Passed</v>
+      </c>
+      <c r="D50" t="str">
+        <v/>
+      </c>
+      <c r="E50" t="str">
+        <v>14-05-2025 12:17:25 pm</v>
+      </c>
+      <c r="F50" t="str">
+        <v>130ms</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>DEBUG</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Available option for Packing: To Pay</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Passed</v>
+      </c>
+      <c r="D51" t="str">
+        <v/>
+      </c>
+      <c r="E51" t="str">
+        <v>14-05-2025 12:17:25 pm</v>
+      </c>
+      <c r="F51" t="str">
+        <v>132ms</v>
+      </c>
+    </row>
+    <row r="52" xml:space="preserve">
+      <c r="A52" t="str">
+        <v>WARNING</v>
+      </c>
+      <c r="B52" t="str" xml:space="preserve">
+        <v xml:space="preserve">Error handling rate input for Packing: elementHandle.waitForElementState: Timeout 5000ms exceeded.
+Call log:
+_x001b_[2m  - attempting wait for enabled action_x001b_[22m
+_x001b_[2m    2 × element is not enabled_x001b_[22m
+_x001b_[2m    - retrying wait for enabled action_x001b_[22m
+_x001b_[2m    - waiting 20ms_x001b_[22m
+_x001b_[2m    2 × element is not enabled_x001b_[22m
+_x001b_[2m    - retrying wait for enabled action_x001b_[22m
+_x001b_[2m      - waiting 100ms_x001b_[22m
+_x001b_[2m    10 × element is not enabled_x001b_[22m
+_x001b_[2m     - retrying wait for enabled action_x001b_[22m
+_x001b_[2m       - waiting 500ms_x001b_[22m
+</v>
+      </c>
+      <c r="C52" t="str">
+        <v>Passed</v>
+      </c>
+      <c r="D52" t="str">
+        <v/>
+      </c>
+      <c r="E52" t="str">
+        <v>14-05-2025 12:17:37 pm</v>
+      </c>
+      <c r="F52" t="str">
+        <v>11s 613ms</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>33</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Handling Freight radio button selection</v>
+      </c>
+      <c r="C53" t="str">
+        <v>Passed</v>
+      </c>
+      <c r="D53" t="str">
+        <v/>
+      </c>
+      <c r="E53" t="str">
+        <v>14-05-2025 12:17:40 pm</v>
+      </c>
+      <c r="F53" t="str">
+        <v>3s 130ms</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>34</v>
+      </c>
+      <c r="B54" t="str">
+        <v>Selected Item Wise option for Freight - skipping to next step</v>
+      </c>
+      <c r="C54" t="str">
+        <v>Passed</v>
+      </c>
+      <c r="D54" t="str">
+        <v/>
+      </c>
+      <c r="E54" t="str">
+        <v>14-05-2025 12:17:41 pm</v>
+      </c>
+      <c r="F54" t="str">
+        <v>1s 337ms</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>35</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Handling Local Delivery radio button selection</v>
+      </c>
+      <c r="C55" t="str">
+        <v>Passed</v>
+      </c>
+      <c r="D55" t="str">
+        <v/>
+      </c>
+      <c r="E55" t="str">
+        <v>14-05-2025 12:17:42 pm</v>
+      </c>
+      <c r="F55" t="str">
+        <v>1s 132ms</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>DEBUG</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Available option for Local Delivery: %</v>
+      </c>
+      <c r="C56" t="str">
+        <v>Passed</v>
+      </c>
+      <c r="D56" t="str">
+        <v/>
+      </c>
+      <c r="E56" t="str">
+        <v>14-05-2025 12:17:46 pm</v>
+      </c>
+      <c r="F56" t="str">
+        <v>4s 22ms</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>DEBUG</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Available option for Local Delivery: Per Kg</v>
+      </c>
+      <c r="C57" t="str">
+        <v>Passed</v>
+      </c>
+      <c r="D57" t="str">
+        <v/>
+      </c>
+      <c r="E57" t="str">
+        <v>14-05-2025 12:17:46 pm</v>
+      </c>
+      <c r="F57" t="str">
+        <v>130ms</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>DEBUG</v>
+      </c>
+      <c r="B58" t="str">
+        <v>Available option for Local Delivery: Per Mtr</v>
+      </c>
+      <c r="C58" t="str">
+        <v>Passed</v>
+      </c>
+      <c r="D58" t="str">
+        <v/>
+      </c>
+      <c r="E58" t="str">
+        <v>14-05-2025 12:17:47 pm</v>
+      </c>
+      <c r="F58" t="str">
+        <v>134ms</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>DEBUG</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Available option for Local Delivery: Per MT</v>
+      </c>
+      <c r="C59" t="str">
+        <v>Passed</v>
+      </c>
+      <c r="D59" t="str">
+        <v/>
+      </c>
+      <c r="E59" t="str">
+        <v>14-05-2025 12:17:47 pm</v>
+      </c>
+      <c r="F59" t="str">
+        <v>136ms</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>DEBUG</v>
+      </c>
+      <c r="B60" t="str">
+        <v>Available option for Local Delivery: Extra At Actual</v>
+      </c>
+      <c r="C60" t="str">
+        <v>Passed</v>
+      </c>
+      <c r="D60" t="str">
+        <v/>
+      </c>
+      <c r="E60" t="str">
+        <v>14-05-2025 12:17:47 pm</v>
+      </c>
+      <c r="F60" t="str">
+        <v>132ms</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>DEBUG</v>
+      </c>
+      <c r="B61" t="str">
+        <v>Available option for Local Delivery: Included</v>
+      </c>
+      <c r="C61" t="str">
+        <v>Passed</v>
+      </c>
+      <c r="D61" t="str">
+        <v/>
+      </c>
+      <c r="E61" t="str">
+        <v>14-05-2025 12:17:47 pm</v>
+      </c>
+      <c r="F61" t="str">
+        <v>132ms</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>DEBUG</v>
+      </c>
+      <c r="B62" t="str">
+        <v>Available option for Local Delivery: Lumpsum</v>
+      </c>
+      <c r="C62" t="str">
+        <v>Passed</v>
+      </c>
+      <c r="D62" t="str">
+        <v/>
+      </c>
+      <c r="E62" t="str">
+        <v>14-05-2025 12:17:47 pm</v>
+      </c>
+      <c r="F62" t="str">
+        <v>136ms</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>DEBUG</v>
+      </c>
+      <c r="B63" t="str">
+        <v>Available option for Local Delivery: To Pay</v>
+      </c>
+      <c r="C63" t="str">
+        <v>Passed</v>
+      </c>
+      <c r="D63" t="str">
+        <v/>
+      </c>
+      <c r="E63" t="str">
+        <v>14-05-2025 12:17:47 pm</v>
+      </c>
+      <c r="F63" t="str">
+        <v>133ms</v>
+      </c>
+    </row>
+    <row r="64" xml:space="preserve">
+      <c r="A64" t="str">
+        <v>WARNING</v>
+      </c>
+      <c r="B64" t="str" xml:space="preserve">
+        <v xml:space="preserve">Error handling rate input for Local Delivery: elementHandle.waitForElementState: Timeout 5000ms exceeded.
+Call log:
+_x001b_[2m  - attempting wait for enabled action_x001b_[22m
+_x001b_[2m    2 × element is not enabled_x001b_[22m
+_x001b_[2m    - retrying wait for enabled action_x001b_[22m
+_x001b_[2m    - waiting 20ms_x001b_[22m
+_x001b_[2m    2 × element is not enabled_x001b_[22m
+_x001b_[2m    - retrying wait for enabled action_x001b_[22m
+_x001b_[2m      - waiting 100ms_x001b_[22m
+_x001b_[2m    9 × element is not enabled_x001b_[22m
+_x001b_[2m    - retrying wait for enabled action_x001b_[22m
+_x001b_[2m      - waiting 500ms_x001b_[22m
+</v>
+      </c>
+      <c r="C64" t="str">
+        <v>Passed</v>
+      </c>
+      <c r="D64" t="str">
+        <v/>
+      </c>
+      <c r="E64" t="str">
+        <v>14-05-2025 12:17:59 pm</v>
+      </c>
+      <c r="F64" t="str">
+        <v>11s 633ms</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F28"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F64"/>
   </ignoredErrors>
 </worksheet>
 </file>